--- a/templates/4.xlsx
+++ b/templates/4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Winner</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>3rd Place:</t>
+  </si>
+  <si>
+    <t>3rd Place</t>
   </si>
 </sst>
 </file>
@@ -104,7 +107,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -174,11 +177,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -197,6 +231,27 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -235,18 +290,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -552,7 +595,7 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,54 +604,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="21"/>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
+      <c r="A1" s="28"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="G4" s="22" t="s">
+      <c r="D4" s="29"/>
+      <c r="G4" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="22"/>
+      <c r="H4" s="29"/>
     </row>
     <row r="5" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
     </row>
     <row r="6" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
@@ -619,14 +662,14 @@
       <c r="B7" s="5"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C10" s="17"/>
-      <c r="D10" s="18"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="25"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C11" s="19"/>
-      <c r="D11" s="20"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="27"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
@@ -642,72 +685,77 @@
       <c r="D13" s="11"/>
       <c r="E13" s="2"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="18"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="25"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
       <c r="E14" s="4"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="20"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="27"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
       <c r="E15" s="4"/>
-      <c r="G15" s="11"/>
+      <c r="G15" s="12"/>
       <c r="H15" s="11"/>
       <c r="I15" s="4"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C16" s="12"/>
-      <c r="D16" s="13"/>
-      <c r="G16" s="11"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="20"/>
+      <c r="G16" s="13"/>
       <c r="H16" s="11"/>
       <c r="I16" s="4"/>
     </row>
     <row r="17" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C17" s="14"/>
-      <c r="D17" s="15"/>
-      <c r="G17" s="11"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="22"/>
+      <c r="F17" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="23"/>
       <c r="H17" s="11"/>
       <c r="I17" s="4"/>
-      <c r="K17" s="16" t="s">
+      <c r="K17" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="L17" s="16"/>
+      <c r="L17" s="23"/>
     </row>
     <row r="18" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
-      <c r="G18" s="11"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="16"/>
       <c r="H18" s="11"/>
       <c r="I18" s="2"/>
       <c r="J18" s="3"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="26"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="16"/>
     </row>
     <row r="19" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
-      <c r="G19" s="11"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="18"/>
       <c r="H19" s="11"/>
       <c r="I19" s="4"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="28"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="18"/>
     </row>
     <row r="20" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C20" s="17"/>
-      <c r="D20" s="18"/>
-      <c r="G20" s="11"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="25"/>
+      <c r="G20" s="13"/>
       <c r="H20" s="11"/>
       <c r="I20" s="4"/>
     </row>
     <row r="21" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C21" s="19"/>
-      <c r="D21" s="20"/>
-      <c r="G21" s="11"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="27"/>
+      <c r="G21" s="13"/>
       <c r="H21" s="11"/>
       <c r="I21" s="4"/>
     </row>
@@ -715,7 +763,7 @@
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
       <c r="E22" s="4"/>
-      <c r="G22" s="11"/>
+      <c r="G22" s="14"/>
       <c r="H22" s="11"/>
       <c r="I22" s="4"/>
     </row>
@@ -724,15 +772,15 @@
       <c r="D23" s="11"/>
       <c r="E23" s="2"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="13"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="20"/>
     </row>
     <row r="24" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
       <c r="E24" s="4"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="15"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="22"/>
     </row>
     <row r="25" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C25" s="11"/>
@@ -740,18 +788,18 @@
       <c r="E25" s="4"/>
     </row>
     <row r="26" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C26" s="12"/>
-      <c r="D26" s="13"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="20"/>
       <c r="J26" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="24"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="31"/>
     </row>
     <row r="27" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C27" s="14"/>
-      <c r="D27" s="15"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="22"/>
       <c r="J27" s="7"/>
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
@@ -761,9 +809,9 @@
       <c r="J28" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="24"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="31"/>
     </row>
     <row r="29" spans="3:13" x14ac:dyDescent="0.25">
       <c r="J29" s="10"/>
@@ -772,21 +820,19 @@
       <c r="J30" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="K30" s="24"/>
-      <c r="L30" s="24"/>
-      <c r="M30" s="24"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
     </row>
     <row r="31" spans="3:13" x14ac:dyDescent="0.25">
       <c r="J31" s="10"/>
       <c r="M31" s="9"/>
     </row>
     <row r="32" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="J32" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="K32" s="24"/>
-      <c r="L32" s="24"/>
-      <c r="M32" s="24"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="23"/>
     </row>
     <row r="33" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J33" s="8"/>
@@ -795,13 +841,11 @@
       <c r="M33" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="21">
     <mergeCell ref="K26:M26"/>
     <mergeCell ref="K28:M28"/>
     <mergeCell ref="K30:M30"/>
     <mergeCell ref="K32:M32"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
     <mergeCell ref="K17:L17"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C21:D21"/>
@@ -818,6 +862,7 @@
     <mergeCell ref="G24:H24"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
+    <mergeCell ref="F17:G17"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
